--- a/resources/dataFile.xlsx
+++ b/resources/dataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation-projects\nopCommerce-automation\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C65B43-C9B2-4283-8B0C-AB433636EEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91B3119-A71A-4B1A-8ADD-CA51BE9F86B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>first_name</t>
   </si>
@@ -53,13 +53,19 @@
   </si>
   <si>
     <t>Your registration completed</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>hridoy@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -86,6 +92,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -104,17 +117,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -331,19 +347,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="12.6328125" style="1"/>
-    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="12.6328125" style="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -354,50 +370,59 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -406,8 +431,9 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -416,8 +442,9 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -426,8 +453,9 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -436,8 +464,9 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -446,8 +475,9 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -456,8 +486,9 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -466,37 +497,45 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{209F7CF3-7A14-43DC-8F87-4DA9F6DDB02C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/resources/dataFile.xlsx
+++ b/resources/dataFile.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation-projects\nopCommerce-automation\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91B3119-A71A-4B1A-8ADD-CA51BE9F86B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169364A2-7603-4C2B-BD16-3E6638C7DE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user_info" sheetId="1" r:id="rId1"/>
+    <sheet name="order_info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>first_name</t>
   </si>
@@ -59,6 +60,58 @@
   </si>
   <si>
     <t>hridoy@yopmail.com</t>
+  </si>
+  <si>
+    <t>product_menu</t>
+  </si>
+  <si>
+    <t>Computers</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Apparel</t>
+  </si>
+  <si>
+    <t>Digital downloads</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Gift Cards</t>
+  </si>
+  <si>
+    <t>selected_menu</t>
+  </si>
+  <si>
+    <t>card_number</t>
+  </si>
+  <si>
+    <t>5123456789012346</t>
+  </si>
+  <si>
+    <t>Hridoy</t>
+  </si>
+  <si>
+    <t>Das</t>
+  </si>
+  <si>
+    <t>Test Company</t>
+  </si>
+  <si>
+    <t>Your order has been successfully
+processed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>order_success_msg</t>
   </si>
 </sst>
 </file>
@@ -121,13 +174,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -349,7 +403,7 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -538,4 +592,423 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F09D6CE-FBCA-4012-BBCD-5AF677D0F341}">
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.90625" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{F280CF9F-E19F-430A-8836-7B13C08B6480}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/resources/dataFile.xlsx
+++ b/resources/dataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation-projects\nopCommerce-automation\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169364A2-7603-4C2B-BD16-3E6638C7DE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED0A7F3-1DEA-40A6-AC71-67B7D1CDD4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user_info" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>first_name</t>
   </si>
@@ -104,14 +104,19 @@
     <t>Test Company</t>
   </si>
   <si>
-    <t>Your order has been successfully
-processed!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>order_success_msg</t>
+  </si>
+  <si>
+    <t>hridoy_das@yopmail.com</t>
+  </si>
+  <si>
+    <t>Hridoy_recept</t>
+  </si>
+  <si>
+    <t>Your order has been successfully processed!</t>
   </si>
 </sst>
 </file>
@@ -598,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F09D6CE-FBCA-4012-BBCD-5AF677D0F341}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -608,7 +613,7 @@
     <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12.90625" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -634,7 +639,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -658,13 +663,13 @@
         <v>23</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -678,13 +683,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -701,7 +712,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -724,7 +735,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -747,7 +758,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -770,7 +781,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -793,7 +804,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -815,7 +826,6 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1007,8 +1017,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{F280CF9F-E19F-430A-8836-7B13C08B6480}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{A25AC8CA-820D-4445-BB18-5DFE960655FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>